--- a/dtpu_configurations/only_integer16/30mhz/mxu_4x4/utilization.xlsx
+++ b/dtpu_configurations/only_integer16/30mhz/mxu_4x4/utilization.xlsx
@@ -154,16 +154,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>17.43421173095703</v>
+        <v>18.8157901763916</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>5.333333492279053</v>
+        <v>5.344827651977539</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>11.668232917785645</v>
+        <v>12.418232917785645</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>46.42856979370117</v>
+        <v>57.85714340209961</v>
       </c>
       <c r="F2" t="n" s="4">
         <v>5.454545497894287</v>
